--- a/Testcases.xlsx
+++ b/Testcases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>We kunnen alle experimenten doen met 2 datasets van 1 miljoen tuples en van 1 miljard (4 bytes lengte).</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>Het zijn wel vrij veel testcases, ik weet niet hoeveel tijd dit kost om te doen, maar als we deze allemaal doen dan hebben we een beetje alle mogelijk combinaties gehad.</t>
+  </si>
+  <si>
+    <t>Extra test:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In het paper wordt genoemd dat het omslag moment van index scan naar full scan een probleem is en dat de execution time dan ineens drastisch kan toenemen. </t>
+  </si>
+  <si>
+    <t>Dit is bijvoorbeeld een probleem als de index scan een selectivity van 2% verwacht maar het is bijvoorbeeld 3%. De switchscan gaat dan na 2% naar full table, terwijl hij beter index scan kon blijven doen</t>
+  </si>
+  <si>
+    <t>Graag een grafiekje maken waaruit blijkt dat dat met onze switchscan inderdaad ook het probleem is.</t>
   </si>
 </sst>
 </file>
@@ -416,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A20" sqref="A20:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -688,13 +700,33 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
     </row>
+    <row r="13" spans="1:22">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="14" spans="1:22">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
-      <c r="A15" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
     </row>
